--- a/JavaEE/Jee_SSH相关/JavaScript.xlsx
+++ b/JavaEE/Jee_SSH相关/JavaScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <r>
       <rPr>
@@ -3561,7 +3561,25 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    var people = {name:'Tom', age:21, eat:function(){}}
+    var people = {name:'Tom', age:21, eat:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>function(){}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">}
 </t>
     </r>
     <r>
@@ -3857,12 +3875,101 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>: "Gates"
-    }</t>
+      <t xml:space="preserve">: "Gates"
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">JSON-key-""
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串传递给</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的参数，在方法内部获取时会变成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -5893,6 +6000,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -8124,6 +8238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -8394,6 +8515,46 @@
       </rPr>
       <t xml:space="preserve">
         document.write(person[x]);
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:
+    for(var i in types){
+        types[i]; //s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则为数组索引，并不是数组元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
     }</t>
     </r>
   </si>
@@ -9761,6 +9922,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -13895,6 +14063,78 @@
         <charset val="134"/>
       </rPr>
       <t>undefined</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>文字水平居中：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   &lt;td style='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>text-align:center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">'&gt;&lt;/td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   &lt;td style='align:center'&gt;&lt;/td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则无效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -14259,6 +14499,93 @@
   </si>
   <si>
     <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表中索引大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移除：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+$("ul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li:gt(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>").remove();</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -14701,11 +15028,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14752,9 +15079,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14775,9 +15108,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14791,14 +15123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -14806,16 +15130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14829,9 +15146,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14860,6 +15176,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -14867,8 +15199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14876,21 +15209,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14958,6 +15285,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -14999,7 +15347,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15011,7 +15389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15029,37 +15425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15071,7 +15443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15089,49 +15473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15143,25 +15491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15173,7 +15515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15193,17 +15541,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15218,16 +15560,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15249,17 +15591,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -15268,25 +15599,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15298,10 +15646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15310,137 +15658,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15469,6 +15817,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15829,8 +16180,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15859,7 +16210,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -16038,40 +16389,46 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" ht="195" customHeight="1" spans="4:7">
+    <row r="10" ht="195" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="11" ht="308" customHeight="1" spans="4:7">
+    <row r="11" ht="308" customHeight="1" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="218" customHeight="1" spans="4:5">
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="62" customHeight="1" spans="4:5">
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="84" customHeight="1" spans="4:5">
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2"/>
     </row>
